--- a/SPPSApi/Doc/Template/FS0625_HSHuoDuoBiaoQian.xlsx
+++ b/SPPSApi/Doc/Template/FS0625_HSHuoDuoBiaoQian.xlsx
@@ -42,12 +42,49 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -56,8 +93,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -361,14 +407,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="9" width="9.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/SPPSApi/Doc/Template/FS0625_HSHuoDuoBiaoQian.xlsx
+++ b/SPPSApi/Doc/Template/FS0625_HSHuoDuoBiaoQian.xlsx
@@ -409,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
